--- a/medicine/Enfance/Ghislaine_Dehaene-Lambertz/Ghislaine_Dehaene-Lambertz.xlsx
+++ b/medicine/Enfance/Ghislaine_Dehaene-Lambertz/Ghislaine_Dehaene-Lambertz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ghislaine Dehaene-Lambertz, née le 23 novembre 1959, est une pédiatre et neuroscientifique française. 
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est directrice de recherche au CNRS et dirige l'équipe de Neuroimagerie du développement dans l'unité INSERM U562 situé à NeuroSpin au Centre CEA de Saclay[1]. Elle étudie les bases cérébrales des fonctions cognitives de l'enfant, et notamment les particularités de l'organisation cérébrale du nourrisson qui favorisent l'acquisition du langage[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est directrice de recherche au CNRS et dirige l'équipe de Neuroimagerie du développement dans l'unité INSERM U562 situé à NeuroSpin au Centre CEA de Saclay. Elle étudie les bases cérébrales des fonctions cognitives de l'enfant, et notamment les particularités de l'organisation cérébrale du nourrisson qui favorisent l'acquisition du langage. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est mariée à Stanislas Dehaene[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est mariée à Stanislas Dehaene.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les publications des scientifiques sont à chercher sur ORCID
 Pascal Picq, Laurent Sagart, Ghislaine Dehaene-Lambertz, et Cécile Lestienne, La plus belle histoire du langage, éditions du Seuil, 2008,  (ISBN 9782020406673).
@@ -605,12 +623,14 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2015: Grand Prix de la recherche 2015 de la Fondation de France[4]
-2016: Prix NRJ-Institut de France, doté de 100 000 €[5]
-2018: Médaille d'argent du CNRS[6]
-2022: Élue membre étranger de l'Academie nationale des Sciences (National Academy of Sciences, NAS)[7]des États-Unis.</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2015: Grand Prix de la recherche 2015 de la Fondation de France
+2016: Prix NRJ-Institut de France, doté de 100 000 €
+2018: Médaille d'argent du CNRS
+2022: Élue membre étranger de l'Academie nationale des Sciences (National Academy of Sciences, NAS)des États-Unis.</t>
         </is>
       </c>
     </row>
